--- a/Income/FB_inc.xlsx
+++ b/Income/FB_inc.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AN28"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -101,7 +101,7 @@
     <col min="26" max="26" bestFit="1" customWidth="1" width="16.5"/>
     <col min="27" max="27" bestFit="1" customWidth="1" width="16.5"/>
     <col min="28" max="28" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="29" max="29" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="29" max="29" bestFit="1" customWidth="1" width="16.5"/>
     <col min="30" max="30" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="31" max="31" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="32" max="32" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -113,6 +113,7 @@
     <col min="38" max="38" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="39" max="39" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="40" max="40" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="41" max="41" bestFit="1" customWidth="1" width="15.400000000000002"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -122,120 +123,123 @@
         </is>
       </c>
       <c r="B1" s="2">
+        <v>44286.0</v>
+      </c>
+      <c r="C1" s="2">
         <v>44196.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>44104.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>44012.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43921.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43830.0</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43738.0</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43646.0</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43555.0</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43465.0</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43373.0</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43281.0</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43190.0</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43100.0</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43008.0</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>42916.0</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>42825.0</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>42735.0</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>42643.0</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>42551.0</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>42460.0</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>42369.0</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>42277.0</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>42185.0</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>42094.0</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>42004.0</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>41912.0</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>41820.0</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <v>41729.0</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>41639.0</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>41547.0</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>41455.0</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AH1" s="2">
         <v>41364.0</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AI1" s="2">
         <v>41274.0</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AJ1" s="2">
         <v>41182.0</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AK1" s="2">
         <v>41090.0</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AL1" s="2">
         <v>40999.0</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AM1" s="2">
         <v>40908.0</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AN1" s="2">
         <v>40816.0</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AO1" s="2">
         <v>40724.0</v>
       </c>
     </row>
@@ -246,120 +250,123 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
+        <v>94400000000.0</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>85966000000.0</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="D2" s="0" t="n">
         <v>78976000000.0</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>75158000000.0</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F2" s="0" t="n">
         <v>73357000000.0</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="G2" s="0" t="n">
         <v>70697000000.0</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H2" s="0" t="n">
         <v>66529000000.0</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>62604000000.0</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J2" s="0" t="n">
         <v>58949000000.0</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>55838000000.0</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>51896000000.0</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>48497000000.0</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="N2" s="0" t="n">
         <v>44587000000.0</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O2" s="0" t="n">
         <v>40653000000.0</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="P2" s="0" t="n">
         <v>36490000000.0</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>33173000000.0</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <v>30288000000.0</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="S2" s="0" t="n">
         <v>27638000000.0</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="T2" s="0" t="n">
         <v>24671000000.0</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="U2" s="0" t="n">
         <v>22161000000.0</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="V2" s="0" t="n">
         <v>19767000000.0</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="W2" s="0" t="n">
         <v>17928000000.0</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="X2" s="0" t="n">
         <v>15937000000.0</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="Y2" s="0" t="n">
         <v>14639000000.0</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Z2" s="0" t="n">
         <v>13507000000.0</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="AA2" s="0" t="n">
         <v>12466000000.0</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AB2" s="0" t="n">
         <v>11200000000.0</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AC2" s="0" t="n">
         <v>10013000000.0</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AD2" s="0" t="n">
         <v>8916000000.0</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AE2" s="0" t="n">
         <v>7872000000.0</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AF2" s="0" t="n">
         <v>6872000000.0</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AG2" s="0" t="n">
         <v>6118000000.0</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AH2" s="0" t="n">
         <v>5489000000.0</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AI2" s="0" t="n">
         <v>5089000000.0</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AJ2" s="0" t="n">
         <v>4635000000.0</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AK2" s="0" t="n">
         <v>4327000000.0</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AL2" s="0" t="n">
         <v>4038000000.0</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AM2" s="0" t="n">
         <v>3711000000.0</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AN2" s="0" t="n">
         <v>3311000000.0</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AO2" s="0" t="n">
         <v>2824000000.0</v>
       </c>
     </row>
@@ -370,120 +377,123 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
+        <v>18364000000.0</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>16692000000.0</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D3" s="0" t="n">
         <v>14974000000.0</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>13935000000.0</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>13413000000.0</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>12770000000.0</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>12074000000.0</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>11337000000.0</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>10244000000.0</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>9355000000.0</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>8169000000.0</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>7199000000.0</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>6222000000.0</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>5454000000.0</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>4891000000.0</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>4430000000.0</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R3" s="0" t="n">
         <v>4110000000.0</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="S3" s="0" t="n">
         <v>3789000000.0</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="T3" s="0" t="n">
         <v>3567000000.0</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="U3" s="0" t="n">
         <v>3300000000.0</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="V3" s="0" t="n">
         <v>3051000000.0</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="W3" s="0" t="n">
         <v>2867000000.0</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="X3" s="0" t="n">
         <v>2695000000.0</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="Y3" s="0" t="n">
         <v>2540000000.0</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Z3" s="0" t="n">
         <v>2345000000.0</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="AA3" s="0" t="n">
         <v>2153000000.0</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AB3" s="0" t="n">
         <v>1990000000.0</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AC3" s="0" t="n">
         <v>1932000000.0</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AD3" s="0" t="n">
         <v>1924000000.0</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AE3" s="0" t="n">
         <v>1875000000.0</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="AF3" s="0" t="n">
         <v>1783000000.0</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AG3" s="0" t="n">
         <v>1598000000.0</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AH3" s="0" t="n">
         <v>1500000000.0</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AI3" s="0" t="n">
         <v>1364000000.0</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="AJ3" s="0" t="n">
         <v>1213000000.0</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AK3" s="0" t="n">
         <v>1127000000.0</v>
       </c>
-      <c r="AK3" s="0" t="n">
+      <c r="AL3" s="0" t="n">
         <v>970000000.0</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="AM3" s="0" t="n">
         <v>860000000.0</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="AN3" s="0" t="n">
         <v>763000000.0</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="AO3" s="0" t="n">
         <v>658000000.0</v>
       </c>
     </row>
@@ -494,120 +504,123 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
+        <v>76036000000.0</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>69274000000.0</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="D4" s="0" t="n">
         <v>64002000000.0</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>61223000000.0</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>59944000000.0</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>57927000000.0</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>54455000000.0</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>51267000000.0</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>48705000000.0</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>46483000000.0</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>43727000000.0</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>41298000000.0</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="N4" s="0" t="n">
         <v>38365000000.0</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>35199000000.0</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>31599000000.0</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>28743000000.0</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>26178000000.0</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>23849000000.0</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="T4" s="0" t="n">
         <v>21104000000.0</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="U4" s="0" t="n">
         <v>18861000000.0</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="V4" s="0" t="n">
         <v>16716000000.0</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="W4" s="0" t="n">
         <v>15061000000.0</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="X4" s="0" t="n">
         <v>13242000000.0</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="Y4" s="0" t="n">
         <v>12099000000.0</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Z4" s="0" t="n">
         <v>11162000000.0</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="AA4" s="0" t="n">
         <v>10313000000.0</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AB4" s="0" t="n">
         <v>9210000000.0</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AC4" s="0" t="n">
         <v>8081000000.0</v>
       </c>
-      <c r="AC4" s="0" t="n">
+      <c r="AD4" s="0" t="n">
         <v>6992000000.0</v>
       </c>
-      <c r="AD4" s="0" t="n">
+      <c r="AE4" s="0" t="n">
         <v>5997000000.0</v>
       </c>
-      <c r="AE4" s="0" t="n">
+      <c r="AF4" s="0" t="n">
         <v>5089000000.0</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AG4" s="0" t="n">
         <v>4520000000.0</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AH4" s="0" t="n">
         <v>3989000000.0</v>
       </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AI4" s="0" t="n">
         <v>3725000000.0</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AJ4" s="0" t="n">
         <v>3422000000.0</v>
       </c>
-      <c r="AJ4" s="0" t="n">
+      <c r="AK4" s="0" t="n">
         <v>3200000000.0</v>
       </c>
-      <c r="AK4" s="0" t="n">
+      <c r="AL4" s="0" t="n">
         <v>3068000000.0</v>
       </c>
-      <c r="AL4" s="0" t="n">
+      <c r="AM4" s="0" t="n">
         <v>2851000000.0</v>
       </c>
-      <c r="AM4" s="0" t="n">
+      <c r="AN4" s="0" t="n">
         <v>2548000000.0</v>
       </c>
-      <c r="AN4" s="0" t="n">
+      <c r="AO4" s="0" t="n">
         <v>2166000000.0</v>
       </c>
     </row>
@@ -618,120 +631,123 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
+        <v>19630000000.0</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>18448000000.0</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>17117000000.0</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>15902000000.0</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>14755000000.0</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>13600000000.0</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>12578000000.0</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>11687000000.0</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>10895000000.0</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>10273000000.0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>9367000000.0</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>8762000000.0</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="N5" s="0" t="n">
         <v>8158000000.0</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>7754000000.0</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>7368000000.0</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="Q5" s="0" t="n">
         <v>6858000000.0</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>6410000000.0</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="S5" s="0" t="n">
         <v>5919000000.0</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="T5" s="0" t="n">
         <v>5669000000.0</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="U5" s="0" t="n">
         <v>5398000000.0</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="V5" s="0" t="n">
         <v>5097000000.0</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="W5" s="0" t="n">
         <v>4816000000.0</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="X5" s="0" t="n">
         <v>4614000000.0</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="Y5" s="0" t="n">
         <v>3951000000.0</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Z5" s="0" t="n">
         <v>3273000000.0</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="AA5" s="0" t="n">
         <v>2666000000.0</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AB5" s="0" t="n">
         <v>1964000000.0</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="AC5" s="0" t="n">
         <v>1725000000.0</v>
       </c>
-      <c r="AC5" s="0" t="n">
+      <c r="AD5" s="0" t="n">
         <v>1577000000.0</v>
       </c>
-      <c r="AD5" s="0" t="n">
+      <c r="AE5" s="0" t="n">
         <v>1415000000.0</v>
       </c>
-      <c r="AE5" s="0" t="n">
+      <c r="AF5" s="0" t="n">
         <v>1303000000.0</v>
       </c>
-      <c r="AF5" s="0" t="n">
+      <c r="AG5" s="0" t="n">
         <v>1178000000.0</v>
       </c>
-      <c r="AG5" s="0" t="n">
+      <c r="AH5" s="0" t="n">
         <v>1539000000.0</v>
       </c>
-      <c r="AH5" s="0" t="n">
+      <c r="AI5" s="0" t="n">
         <v>1399000000.0</v>
       </c>
-      <c r="AI5" s="0" t="n">
+      <c r="AJ5" s="0" t="n">
         <v>1226000000.0</v>
       </c>
-      <c r="AJ5" s="0" t="n">
+      <c r="AK5" s="0" t="n">
         <v>1090000000.0</v>
       </c>
-      <c r="AK5" s="0" t="n">
+      <c r="AL5" s="0" t="n">
         <v>484000000.0</v>
       </c>
-      <c r="AL5" s="0" t="n">
+      <c r="AM5" s="0" t="n">
         <v>388000000.0</v>
       </c>
-      <c r="AM5" s="0" t="n">
+      <c r="AN5" s="0" t="n">
         <v>309000000.0</v>
       </c>
-      <c r="AN5" s="0" t="n">
+      <c r="AO5" s="0" t="n">
         <v>242000000.0</v>
       </c>
     </row>
@@ -742,120 +758,123 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
+        <v>18250000000.0</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>18155000000.0</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>18131000000.0</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>17422000000.0</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>18627000000.0</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>20341000000.0</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>18929000000.0</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>18036000000.0</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>15029000000.0</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>11297000000.0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>9914000000.0</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>8749000000.0</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="N6" s="0" t="n">
         <v>7882000000.0</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>7242000000.0</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>6815000000.0</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>6474000000.0</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="R6" s="0" t="n">
         <v>6024000000.0</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="S6" s="0" t="n">
         <v>5503000000.0</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="T6" s="0" t="n">
         <v>5014000000.0</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="U6" s="0" t="n">
         <v>4700000000.0</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="V6" s="0" t="n">
         <v>4317000000.0</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="W6" s="0" t="n">
         <v>4020000000.0</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="X6" s="0" t="n">
         <v>3831000000.0</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="Y6" s="0" t="n">
         <v>3413000000.0</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Z6" s="0" t="n">
         <v>3037000000.0</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="AA6" s="0" t="n">
         <v>2653000000.0</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AB6" s="0" t="n">
         <v>2251000000.0</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AC6" s="0" t="n">
         <v>2022000000.0</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="AD6" s="0" t="n">
         <v>1909000000.0</v>
       </c>
-      <c r="AD6" s="0" t="n">
+      <c r="AE6" s="0" t="n">
         <v>1778000000.0</v>
       </c>
-      <c r="AE6" s="0" t="n">
+      <c r="AF6" s="0" t="n">
         <v>1592000000.0</v>
       </c>
-      <c r="AF6" s="0" t="n">
+      <c r="AG6" s="0" t="n">
         <v>1507000000.0</v>
       </c>
-      <c r="AG6" s="0" t="n">
+      <c r="AH6" s="0" t="n">
         <v>1920000000.0</v>
       </c>
-      <c r="AH6" s="0" t="n">
+      <c r="AI6" s="0" t="n">
         <v>1788000000.0</v>
       </c>
-      <c r="AI6" s="0" t="n">
+      <c r="AJ6" s="0" t="n">
         <v>1633000000.0</v>
       </c>
-      <c r="AJ6" s="0" t="n">
+      <c r="AK6" s="0" t="n">
         <v>1510000000.0</v>
       </c>
-      <c r="AK6" s="0" t="n">
+      <c r="AL6" s="0" t="n">
         <v>834000000.0</v>
       </c>
-      <c r="AL6" s="0" t="n">
+      <c r="AM6" s="0" t="n">
         <v>706000000.0</v>
       </c>
-      <c r="AM6" s="0" t="n">
+      <c r="AN6" s="0" t="n">
         <v>593000000.0</v>
       </c>
-      <c r="AN6" s="0" t="n">
+      <c r="AO6" s="0" t="n">
         <v>476000000.0</v>
       </c>
     </row>
@@ -866,120 +885,123 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
+        <v>38156000000.0</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>32671000000.0</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="D7" s="0" t="n">
         <v>28754000000.0</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <v>27899000000.0</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>26562000000.0</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>23986000000.0</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>22948000000.0</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>21544000000.0</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>22781000000.0</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="K7" s="0" t="n">
         <v>24913000000.0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>24446000000.0</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>23787000000.0</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="N7" s="0" t="n">
         <v>22325000000.0</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>20203000000.0</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>17416000000.0</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>15411000000.0</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="R7" s="0" t="n">
         <v>13744000000.0</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="S7" s="0" t="n">
         <v>12427000000.0</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="T7" s="0" t="n">
         <v>10421000000.0</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="U7" s="0" t="n">
         <v>8763000000.0</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="V7" s="0" t="n">
         <v>7302000000.0</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="W7" s="0" t="n">
         <v>6225000000.0</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="X7" s="0" t="n">
         <v>4797000000.0</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="Y7" s="0" t="n">
         <v>4735000000.0</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Z7" s="0" t="n">
         <v>4852000000.0</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="AA7" s="0" t="n">
         <v>4994000000.0</v>
       </c>
-      <c r="AA7" s="0" t="n">
+      <c r="AB7" s="0" t="n">
         <v>4995000000.0</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AC7" s="0" t="n">
         <v>4334000000.0</v>
       </c>
-      <c r="AC7" s="0" t="n">
+      <c r="AD7" s="0" t="n">
         <v>3506000000.0</v>
       </c>
-      <c r="AD7" s="0" t="n">
+      <c r="AE7" s="0" t="n">
         <v>2804000000.0</v>
       </c>
-      <c r="AE7" s="0" t="n">
+      <c r="AF7" s="0" t="n">
         <v>2194000000.0</v>
       </c>
-      <c r="AF7" s="0" t="n">
+      <c r="AG7" s="0" t="n">
         <v>1835000000.0</v>
       </c>
-      <c r="AG7" s="0" t="n">
+      <c r="AH7" s="0" t="n">
         <v>530000000.0</v>
       </c>
-      <c r="AH7" s="0" t="n">
+      <c r="AI7" s="0" t="n">
         <v>538000000.0</v>
       </c>
-      <c r="AI7" s="0" t="n">
+      <c r="AJ7" s="0" t="n">
         <v>563000000.0</v>
       </c>
-      <c r="AJ7" s="0" t="n">
+      <c r="AK7" s="0" t="n">
         <v>600000000.0</v>
       </c>
-      <c r="AK7" s="0" t="n">
+      <c r="AL7" s="0" t="n">
         <v>1750000000.0</v>
       </c>
-      <c r="AL7" s="0" t="n">
+      <c r="AM7" s="0" t="n">
         <v>1757000000.0</v>
       </c>
-      <c r="AM7" s="0" t="n">
+      <c r="AN7" s="0" t="n">
         <v>1646000000.0</v>
       </c>
-      <c r="AN7" s="0" t="n">
+      <c r="AO7" s="0" t="n">
         <v>1448000000.0</v>
       </c>
     </row>
@@ -990,126 +1012,129 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
+        <v>222000000.0</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>-163000000.0</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>-245000000.0</v>
-      </c>
       <c r="D8" s="0" t="n">
-        <v>-48000000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>152000000.0</v>
+        <v>201000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>577000000.0</v>
+        <v>401000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
+        <v>826000000.0</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <v>666000000.0</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="I8" s="0" t="n">
         <v>653000000.0</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="J8" s="0" t="n">
         <v>452000000.0</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="K8" s="0" t="n">
         <v>448000000.0</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="L8" s="0" t="n">
         <v>406000000.0</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="M8" s="0" t="n">
         <v>389000000.0</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="N8" s="0" t="n">
         <v>471000000.0</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="O8" s="0" t="n">
         <v>391000000.0</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="P8" s="0" t="n">
         <v>250000000.0</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="Q8" s="0" t="n">
         <v>183000000.0</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="R8" s="0" t="n">
         <v>116000000.0</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="S8" s="0" t="n">
         <v>91000000.0</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="T8" s="0" t="n">
         <v>120000000.0</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="U8" s="0" t="n">
         <v>46000000.0</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="V8" s="0" t="n">
         <v>25000000.0</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="W8" s="0" t="n">
         <v>-50000000.0</v>
       </c>
-      <c r="W8" s="0" t="n">
+      <c r="X8" s="0" t="n">
         <v>-108000000.0</v>
       </c>
-      <c r="X8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y8" s="0" t="n">
+      <c r="Y8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z8" s="0" t="n">
         <v>-85000000.0</v>
       </c>
-      <c r="Z8" s="0" t="n">
+      <c r="AA8" s="0" t="n">
         <v>-87000000.0</v>
       </c>
-      <c r="AA8" s="0" t="n">
+      <c r="AB8" s="0" t="n">
         <v>-78000000.0</v>
       </c>
-      <c r="AB8" s="0" t="n">
+      <c r="AC8" s="0" t="n">
         <v>-34000000.0</v>
       </c>
-      <c r="AC8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AD8" s="0" t="n">
+      <c r="AD8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE8" s="0" t="n">
         <v>-50000000.0</v>
       </c>
-      <c r="AE8" s="0" t="n">
+      <c r="AF8" s="0" t="n">
         <v>-65000000.0</v>
       </c>
-      <c r="AF8" s="0" t="n">
+      <c r="AG8" s="0" t="n">
         <v>-60000000.0</v>
       </c>
-      <c r="AG8" s="0" t="n">
+      <c r="AH8" s="0" t="n">
         <v>-65000000.0</v>
       </c>
-      <c r="AH8" s="0" t="n">
+      <c r="AI8" s="0" t="n">
         <v>-44000000.0</v>
       </c>
-      <c r="AI8" s="0" t="n">
+      <c r="AJ8" s="0" t="n">
         <v>-54000000.0</v>
       </c>
-      <c r="AJ8" s="0" t="n">
+      <c r="AK8" s="0" t="n">
         <v>-84000000.0</v>
       </c>
-      <c r="AK8" s="0" t="n">
+      <c r="AL8" s="0" t="n">
         <v>-70000000.0</v>
       </c>
-      <c r="AL8" s="0" t="n">
+      <c r="AM8" s="0" t="n">
         <v>-61000000.0</v>
       </c>
-      <c r="AM8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AN8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1122,25 +1147,23 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
+        <v>569000000.0</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>672000000.0</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="D9" s="0" t="n">
         <v>785000000.0</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="E9" s="0" t="n">
         <v>640000000.0</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <v>482000000.0</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="G9" s="0" t="n">
         <v>264000000.0</v>
       </c>
-      <c r="G9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1226,62 +1249,67 @@
           <t/>
         </is>
       </c>
-      <c r="Y9" s="0" t="n">
+      <c r="Y9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z9" s="0" t="n">
         <v>32000000.0</v>
       </c>
-      <c r="Z9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AA9" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AB9" s="0" t="n">
+      <c r="AB9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC9" s="0" t="n">
         <v>51000000.0</v>
       </c>
-      <c r="AC9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AD9" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AE9" s="0" t="n">
+      <c r="AE9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF9" s="0" t="n">
         <v>63000000.0</v>
       </c>
-      <c r="AF9" s="0" t="n">
+      <c r="AG9" s="0" t="n">
         <v>64000000.0</v>
       </c>
-      <c r="AG9" s="0" t="n">
+      <c r="AH9" s="0" t="n">
         <v>57000000.0</v>
-      </c>
-      <c r="AH9" s="0" t="n">
-        <v>50000000.0</v>
       </c>
       <c r="AI9" s="0" t="n">
         <v>50000000.0</v>
       </c>
       <c r="AJ9" s="0" t="n">
+        <v>50000000.0</v>
+      </c>
+      <c r="AK9" s="0" t="n">
         <v>49000000.0</v>
       </c>
-      <c r="AK9" s="0" t="n">
+      <c r="AL9" s="0" t="n">
         <v>48000000.0</v>
       </c>
-      <c r="AL9" s="0" t="n">
+      <c r="AM9" s="0" t="n">
         <v>42000000.0</v>
       </c>
-      <c r="AM9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AN9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO9" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1294,120 +1322,123 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
+        <v>38822000000.0</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>33180000000.0</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>29294000000.0</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>28490000000.0</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>27191000000.0</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="G10" s="0" t="n">
         <v>24812000000.0</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>23614000000.0</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>22197000000.0</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="J10" s="0" t="n">
         <v>23233000000.0</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="K10" s="0" t="n">
         <v>25361000000.0</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="L10" s="0" t="n">
         <v>24852000000.0</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>24176000000.0</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="N10" s="0" t="n">
         <v>22796000000.0</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>20594000000.0</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="P10" s="0" t="n">
         <v>17666000000.0</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="Q10" s="0" t="n">
         <v>15594000000.0</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="R10" s="0" t="n">
         <v>13860000000.0</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="S10" s="0" t="n">
         <v>12518000000.0</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="T10" s="0" t="n">
         <v>10541000000.0</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="U10" s="0" t="n">
         <v>8809000000.0</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="V10" s="0" t="n">
         <v>7328000000.0</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="W10" s="0" t="n">
         <v>6194000000.0</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="X10" s="0" t="n">
         <v>4750000000.0</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="Y10" s="0" t="n">
         <v>4654000000.0</v>
       </c>
-      <c r="Y10" s="0" t="n">
+      <c r="Z10" s="0" t="n">
         <v>4767000000.0</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="AA10" s="0" t="n">
         <v>4910000000.0</v>
       </c>
-      <c r="AA10" s="0" t="n">
+      <c r="AB10" s="0" t="n">
         <v>4927000000.0</v>
       </c>
-      <c r="AB10" s="0" t="n">
+      <c r="AC10" s="0" t="n">
         <v>4317000000.0</v>
       </c>
-      <c r="AC10" s="0" t="n">
+      <c r="AD10" s="0" t="n">
         <v>3476000000.0</v>
       </c>
-      <c r="AD10" s="0" t="n">
+      <c r="AE10" s="0" t="n">
         <v>2754000000.0</v>
       </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AF10" s="0" t="n">
         <v>2129000000.0</v>
       </c>
-      <c r="AF10" s="0" t="n">
+      <c r="AG10" s="0" t="n">
         <v>1775000000.0</v>
       </c>
-      <c r="AG10" s="0" t="n">
+      <c r="AH10" s="0" t="n">
         <v>465000000.0</v>
       </c>
-      <c r="AH10" s="0" t="n">
+      <c r="AI10" s="0" t="n">
         <v>494000000.0</v>
       </c>
-      <c r="AI10" s="0" t="n">
+      <c r="AJ10" s="0" t="n">
         <v>509000000.0</v>
       </c>
-      <c r="AJ10" s="0" t="n">
+      <c r="AK10" s="0" t="n">
         <v>516000000.0</v>
       </c>
-      <c r="AK10" s="0" t="n">
+      <c r="AL10" s="0" t="n">
         <v>1680000000.0</v>
       </c>
-      <c r="AL10" s="0" t="n">
+      <c r="AM10" s="0" t="n">
         <v>1696000000.0</v>
       </c>
-      <c r="AM10" s="0" t="n">
+      <c r="AN10" s="0" t="n">
         <v>1613000000.0</v>
       </c>
-      <c r="AN10" s="0" t="n">
+      <c r="AO10" s="0" t="n">
         <v>1450000000.0</v>
       </c>
     </row>
@@ -1418,120 +1449,123 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
+        <v>5082000000.0</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>4035000000.0</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="D11" s="0" t="n">
         <v>4019000000.0</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <v>4970000000.0</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>6233000000.0</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="G11" s="0" t="n">
         <v>6327000000.0</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>5597000000.0</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="I11" s="0" t="n">
         <v>5134000000.0</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="J11" s="0" t="n">
         <v>3680000000.0</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="K11" s="0" t="n">
         <v>3249000000.0</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>5352000000.0</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>5106000000.0</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="N11" s="0" t="n">
         <v>4938000000.0</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>4660000000.0</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>2432000000.0</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>2440000000.0</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>2317000000.0</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="S11" s="0" t="n">
         <v>2301000000.0</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="T11" s="0" t="n">
         <v>2332000000.0</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="U11" s="0" t="n">
         <v>2331000000.0</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="V11" s="0" t="n">
         <v>2414000000.0</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="W11" s="0" t="n">
         <v>2506000000.0</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="X11" s="0" t="n">
         <v>1922000000.0</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="Y11" s="0" t="n">
         <v>1916000000.0</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Z11" s="0" t="n">
         <v>1957000000.0</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="AA11" s="0" t="n">
         <v>1970000000.0</v>
       </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AB11" s="0" t="n">
         <v>2165000000.0</v>
       </c>
-      <c r="AB11" s="0" t="n">
+      <c r="AC11" s="0" t="n">
         <v>1936000000.0</v>
       </c>
-      <c r="AC11" s="0" t="n">
+      <c r="AD11" s="0" t="n">
         <v>1553000000.0</v>
       </c>
-      <c r="AD11" s="0" t="n">
+      <c r="AE11" s="0" t="n">
         <v>1254000000.0</v>
       </c>
-      <c r="AE11" s="0" t="n">
+      <c r="AF11" s="0" t="n">
         <v>1088000000.0</v>
       </c>
-      <c r="AF11" s="0" t="n">
+      <c r="AG11" s="0" t="n">
         <v>1218000000.0</v>
       </c>
-      <c r="AG11" s="0" t="n">
+      <c r="AH11" s="0" t="n">
         <v>398000000.0</v>
       </c>
-      <c r="AH11" s="0" t="n">
+      <c r="AI11" s="0" t="n">
         <v>441000000.0</v>
       </c>
-      <c r="AI11" s="0" t="n">
+      <c r="AJ11" s="0" t="n">
         <v>218000000.0</v>
       </c>
-      <c r="AJ11" s="0" t="n">
+      <c r="AK11" s="0" t="n">
         <v>-61000000.0</v>
       </c>
-      <c r="AK11" s="0" t="n">
+      <c r="AL11" s="0" t="n">
         <v>706000000.0</v>
       </c>
-      <c r="AL11" s="0" t="n">
+      <c r="AM11" s="0" t="n">
         <v>694000000.0</v>
       </c>
-      <c r="AM11" s="0" t="n">
+      <c r="AN11" s="0" t="n">
         <v>662000000.0</v>
       </c>
-      <c r="AN11" s="0" t="n">
+      <c r="AO11" s="0" t="n">
         <v>595000000.0</v>
       </c>
     </row>
@@ -1542,120 +1576,123 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
+        <v>33741000000.0</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>29146000000.0</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="D12" s="0" t="n">
         <v>25275000000.0</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>23520000000.0</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>20958000000.0</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="G12" s="0" t="n">
         <v>18485000000.0</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>18017000000.0</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="I12" s="0" t="n">
         <v>17063000000.0</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="J12" s="0" t="n">
         <v>19553000000.0</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="K12" s="0" t="n">
         <v>22112000000.0</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="L12" s="0" t="n">
         <v>19500000000.0</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>19070000000.0</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="N12" s="0" t="n">
         <v>17858000000.0</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <v>15934000000.0</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>15234000000.0</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>13154000000.0</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="R12" s="0" t="n">
         <v>11543000000.0</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="S12" s="0" t="n">
         <v>10217000000.0</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="T12" s="0" t="n">
         <v>8209000000.0</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="U12" s="0" t="n">
         <v>6478000000.0</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="V12" s="0" t="n">
         <v>4914000000.0</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="W12" s="0" t="n">
         <v>3688000000.0</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="X12" s="0" t="n">
         <v>2828000000.0</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="Y12" s="0" t="n">
         <v>2738000000.0</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Z12" s="0" t="n">
         <v>2810000000.0</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="AA12" s="0" t="n">
         <v>2940000000.0</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AB12" s="0" t="n">
         <v>2762000000.0</v>
       </c>
-      <c r="AB12" s="0" t="n">
+      <c r="AC12" s="0" t="n">
         <v>2381000000.0</v>
       </c>
-      <c r="AC12" s="0" t="n">
+      <c r="AD12" s="0" t="n">
         <v>1923000000.0</v>
       </c>
-      <c r="AD12" s="0" t="n">
+      <c r="AE12" s="0" t="n">
         <v>1500000000.0</v>
       </c>
-      <c r="AE12" s="0" t="n">
+      <c r="AF12" s="0" t="n">
         <v>1041000000.0</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AG12" s="0" t="n">
         <v>557000000.0</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AH12" s="0" t="n">
         <v>67000000.0</v>
       </c>
-      <c r="AH12" s="0" t="n">
+      <c r="AI12" s="0" t="n">
         <v>53000000.0</v>
       </c>
-      <c r="AI12" s="0" t="n">
+      <c r="AJ12" s="0" t="n">
         <v>291000000.0</v>
       </c>
-      <c r="AJ12" s="0" t="n">
+      <c r="AK12" s="0" t="n">
         <v>577000000.0</v>
       </c>
-      <c r="AK12" s="0" t="n">
+      <c r="AL12" s="0" t="n">
         <v>974000000.0</v>
       </c>
-      <c r="AL12" s="0" t="n">
+      <c r="AM12" s="0" t="n">
         <v>1002000000.0</v>
       </c>
-      <c r="AM12" s="0" t="n">
+      <c r="AN12" s="0" t="n">
         <v>951000000.0</v>
       </c>
-      <c r="AN12" s="0" t="n">
+      <c r="AO12" s="0" t="n">
         <v>855000000.0</v>
       </c>
     </row>
@@ -1666,120 +1703,123 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
+        <v>33740000000.0</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>29145000000.0</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="D13" s="0" t="n">
         <v>25275000000.0</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <v>23520000000.0</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>20958000000.0</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="G13" s="0" t="n">
         <v>18485000000.0</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="H13" s="0" t="n">
         <v>18017000000.0</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="I13" s="0" t="n">
         <v>17063000000.0</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="J13" s="0" t="n">
         <v>19553000000.0</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="K13" s="0" t="n">
         <v>22111000000.0</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>19497000000.0</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>19064000000.0</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="N13" s="0" t="n">
         <v>17848000000.0</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>15920000000.0</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>15213000000.0</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>13129000000.0</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="R13" s="0" t="n">
         <v>11515000000.0</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="S13" s="0" t="n">
         <v>10188000000.0</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="T13" s="0" t="n">
         <v>8182000000.0</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="U13" s="0" t="n">
         <v>6453000000.0</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="V13" s="0" t="n">
         <v>4892000000.0</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="W13" s="0" t="n">
         <v>3669000000.0</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="X13" s="0" t="n">
         <v>2811000000.0</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="Y13" s="0" t="n">
         <v>2722000000.0</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Z13" s="0" t="n">
         <v>2795000000.0</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="AA13" s="0" t="n">
         <v>2925000000.0</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AB13" s="0" t="n">
         <v>2750000000.0</v>
       </c>
-      <c r="AB13" s="0" t="n">
+      <c r="AC13" s="0" t="n">
         <v>2370000000.0</v>
       </c>
-      <c r="AC13" s="0" t="n">
+      <c r="AD13" s="0" t="n">
         <v>1913000000.0</v>
       </c>
-      <c r="AD13" s="0" t="n">
+      <c r="AE13" s="0" t="n">
         <v>1491000000.0</v>
       </c>
-      <c r="AE13" s="0" t="n">
+      <c r="AF13" s="0" t="n">
         <v>1034000000.0</v>
       </c>
-      <c r="AF13" s="0" t="n">
+      <c r="AG13" s="0" t="n">
         <v>553000000.0</v>
       </c>
-      <c r="AG13" s="0" t="n">
+      <c r="AH13" s="0" t="n">
         <v>65000000.0</v>
       </c>
-      <c r="AH13" s="0" t="n">
+      <c r="AI13" s="0" t="n">
         <v>-15000000.0</v>
       </c>
-      <c r="AI13" s="0" t="n">
+      <c r="AJ13" s="0" t="n">
         <v>126000000.0</v>
       </c>
-      <c r="AJ13" s="0" t="n">
+      <c r="AK13" s="0" t="n">
         <v>335000000.0</v>
       </c>
-      <c r="AK13" s="0" t="n">
+      <c r="AL13" s="0" t="n">
         <v>651000000.0</v>
       </c>
-      <c r="AL13" s="0" t="n">
+      <c r="AM13" s="0" t="n">
         <v>667000000.0</v>
       </c>
-      <c r="AM13" s="0" t="n">
+      <c r="AN13" s="0" t="n">
         <v>713000000.0</v>
       </c>
-      <c r="AN13" s="0" t="n">
+      <c r="AO13" s="0" t="n">
         <v>694000000.0</v>
       </c>
     </row>
@@ -1790,115 +1830,113 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>10.1</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>8.78</v>
-      </c>
       <c r="D14" s="0" t="n">
-        <v>8.2</v>
+        <v>8.8</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>7.32</v>
+        <v>8.22</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>6.46</v>
+        <v>7.34</v>
       </c>
       <c r="G14" s="0" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="H14" s="0" t="n">
         <v>6.3</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="I14" s="0" t="n">
         <v>5.95</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="J14" s="0" t="n">
         <v>6.79</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="K14" s="0" t="n">
         <v>7.66</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="L14" s="0" t="n">
         <v>6.73</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>6.57</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="N14" s="0" t="n">
         <v>6.15</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="O14" s="0" t="n">
         <v>5.49</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <v>5.26</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="Q14" s="0" t="n">
         <v>4.47</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="R14" s="0" t="n">
         <v>3.85</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="S14" s="0" t="n">
         <v>3.32</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="T14" s="0" t="n">
         <v>2.63</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="U14" s="0" t="n">
         <v>2.12</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="V14" s="0" t="n">
         <v>1.66</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="W14" s="0" t="n">
         <v>1.31</v>
       </c>
-      <c r="W14" s="0" t="n">
+      <c r="X14" s="0" t="n">
         <v>1.01</v>
       </c>
-      <c r="X14" s="0" t="n">
+      <c r="Y14" s="0" t="n">
         <v>1.0</v>
       </c>
-      <c r="Y14" s="0" t="n">
+      <c r="Z14" s="0" t="n">
         <v>1.05</v>
       </c>
-      <c r="Z14" s="0" t="n">
+      <c r="AA14" s="0" t="n">
         <v>1.12</v>
       </c>
-      <c r="AA14" s="0" t="n">
+      <c r="AB14" s="0" t="n">
         <v>1.08</v>
       </c>
-      <c r="AB14" s="0" t="n">
+      <c r="AC14" s="0" t="n">
         <v>0.94</v>
       </c>
-      <c r="AC14" s="0" t="n">
+      <c r="AD14" s="0" t="n">
         <v>0.77</v>
       </c>
-      <c r="AD14" s="0" t="n">
+      <c r="AE14" s="0" t="n">
         <v>0.61</v>
       </c>
-      <c r="AE14" s="0" t="n">
+      <c r="AF14" s="0" t="n">
         <v>0.43</v>
       </c>
-      <c r="AF14" s="0" t="n">
+      <c r="AG14" s="0" t="n">
         <v>0.24</v>
       </c>
-      <c r="AG14" s="0" t="n">
+      <c r="AH14" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="AH14" s="0" t="n">
+      <c r="AI14" s="0" t="n">
         <v>0.03</v>
       </c>
-      <c r="AI14" s="0" t="n">
+      <c r="AJ14" s="0" t="n">
         <v>0.11</v>
       </c>
-      <c r="AJ14" s="0" t="n">
+      <c r="AK14" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="AK14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AL14" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1910,6 +1948,11 @@
         </is>
       </c>
       <c r="AN14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO14" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1922,120 +1965,123 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
+        <v>0.8055</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>0.8058</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="D15" s="0" t="n">
         <v>0.8104</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="E15" s="0" t="n">
         <v>0.8146</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="F15" s="0" t="n">
         <v>0.8172</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="G15" s="0" t="n">
         <v>0.8194</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="H15" s="0" t="n">
         <v>0.8185</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="I15" s="0" t="n">
         <v>0.8189</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="J15" s="0" t="n">
         <v>0.8262</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="K15" s="0" t="n">
         <v>0.8325</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="L15" s="0" t="n">
         <v>0.8426</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>0.8516</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="N15" s="0" t="n">
         <v>0.8605</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="O15" s="0" t="n">
         <v>0.8658</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="P15" s="0" t="n">
         <v>0.866</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="Q15" s="0" t="n">
         <v>0.8665</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="R15" s="0" t="n">
         <v>0.8643</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="S15" s="0" t="n">
         <v>0.8629</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="T15" s="0" t="n">
         <v>0.8554</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="U15" s="0" t="n">
         <v>0.8511</v>
       </c>
-      <c r="U15" s="0" t="n">
+      <c r="V15" s="0" t="n">
         <v>0.8457</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="W15" s="0" t="n">
         <v>0.8401</v>
       </c>
-      <c r="W15" s="0" t="n">
+      <c r="X15" s="0" t="n">
         <v>0.8309</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="Y15" s="0" t="n">
         <v>0.8265</v>
       </c>
-      <c r="Y15" s="0" t="n">
+      <c r="Z15" s="0" t="n">
         <v>0.8264</v>
       </c>
-      <c r="Z15" s="0" t="n">
+      <c r="AA15" s="0" t="n">
         <v>0.8273</v>
       </c>
-      <c r="AA15" s="0" t="n">
+      <c r="AB15" s="0" t="n">
         <v>0.8223</v>
       </c>
-      <c r="AB15" s="0" t="n">
+      <c r="AC15" s="0" t="n">
         <v>0.8071</v>
       </c>
-      <c r="AC15" s="0" t="n">
+      <c r="AD15" s="0" t="n">
         <v>0.7842</v>
       </c>
-      <c r="AD15" s="0" t="n">
+      <c r="AE15" s="0" t="n">
         <v>0.7618</v>
       </c>
-      <c r="AE15" s="0" t="n">
+      <c r="AF15" s="0" t="n">
         <v>0.7405</v>
       </c>
-      <c r="AF15" s="0" t="n">
+      <c r="AG15" s="0" t="n">
         <v>0.7388</v>
       </c>
-      <c r="AG15" s="0" t="n">
+      <c r="AH15" s="0" t="n">
         <v>0.7267</v>
       </c>
-      <c r="AH15" s="0" t="n">
+      <c r="AI15" s="0" t="n">
         <v>0.732</v>
       </c>
-      <c r="AI15" s="0" t="n">
+      <c r="AJ15" s="0" t="n">
         <v>0.7383</v>
       </c>
-      <c r="AJ15" s="0" t="n">
+      <c r="AK15" s="0" t="n">
         <v>0.7395</v>
       </c>
-      <c r="AK15" s="0" t="n">
+      <c r="AL15" s="0" t="n">
         <v>0.7598</v>
       </c>
-      <c r="AL15" s="0" t="n">
+      <c r="AM15" s="0" t="n">
         <v>0.7683</v>
       </c>
-      <c r="AM15" s="0" t="n">
+      <c r="AN15" s="0" t="n">
         <v>0.7696</v>
       </c>
-      <c r="AN15" s="0" t="n">
+      <c r="AO15" s="0" t="n">
         <v>0.767</v>
       </c>
     </row>
@@ -2046,120 +2092,123 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
+        <v>0.4042</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>0.38</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="D16" s="0" t="n">
         <v>0.3641</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="E16" s="0" t="n">
         <v>0.3712</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="F16" s="0" t="n">
         <v>0.3621</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="G16" s="0" t="n">
         <v>0.3393</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="H16" s="0" t="n">
         <v>0.3449</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="I16" s="0" t="n">
         <v>0.3441</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="J16" s="0" t="n">
         <v>0.3865</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="K16" s="0" t="n">
         <v>0.4462</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="L16" s="0" t="n">
         <v>0.4711</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>0.4905</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="N16" s="0" t="n">
         <v>0.5007</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="O16" s="0" t="n">
         <v>0.497</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="P16" s="0" t="n">
         <v>0.4773</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="Q16" s="0" t="n">
         <v>0.4646</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="R16" s="0" t="n">
         <v>0.4538</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="S16" s="0" t="n">
         <v>0.4496</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="T16" s="0" t="n">
         <v>0.4224</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="U16" s="0" t="n">
         <v>0.3954</v>
       </c>
-      <c r="U16" s="0" t="n">
+      <c r="V16" s="0" t="n">
         <v>0.3694</v>
       </c>
-      <c r="V16" s="0" t="n">
+      <c r="W16" s="0" t="n">
         <v>0.3472</v>
       </c>
-      <c r="W16" s="0" t="n">
+      <c r="X16" s="0" t="n">
         <v>0.301</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="Y16" s="0" t="n">
         <v>0.3235</v>
       </c>
-      <c r="Y16" s="0" t="n">
+      <c r="Z16" s="0" t="n">
         <v>0.3592</v>
       </c>
-      <c r="Z16" s="0" t="n">
+      <c r="AA16" s="0" t="n">
         <v>0.4006</v>
       </c>
-      <c r="AA16" s="0" t="n">
+      <c r="AB16" s="0" t="n">
         <v>0.446</v>
       </c>
-      <c r="AB16" s="0" t="n">
+      <c r="AC16" s="0" t="n">
         <v>0.4328</v>
       </c>
-      <c r="AC16" s="0" t="n">
+      <c r="AD16" s="0" t="n">
         <v>0.3932</v>
       </c>
-      <c r="AD16" s="0" t="n">
+      <c r="AE16" s="0" t="n">
         <v>0.3562</v>
       </c>
-      <c r="AE16" s="0" t="n">
+      <c r="AF16" s="0" t="n">
         <v>0.3193</v>
       </c>
-      <c r="AF16" s="0" t="n">
+      <c r="AG16" s="0" t="n">
         <v>0.2999</v>
       </c>
-      <c r="AG16" s="0" t="n">
+      <c r="AH16" s="0" t="n">
         <v>0.0966</v>
       </c>
-      <c r="AH16" s="0" t="n">
+      <c r="AI16" s="0" t="n">
         <v>0.1057</v>
       </c>
-      <c r="AI16" s="0" t="n">
+      <c r="AJ16" s="0" t="n">
         <v>0.1215</v>
       </c>
-      <c r="AJ16" s="0" t="n">
+      <c r="AK16" s="0" t="n">
         <v>0.1387</v>
       </c>
-      <c r="AK16" s="0" t="n">
+      <c r="AL16" s="0" t="n">
         <v>0.4334</v>
       </c>
-      <c r="AL16" s="0" t="n">
+      <c r="AM16" s="0" t="n">
         <v>0.4735</v>
       </c>
-      <c r="AM16" s="0" t="n">
+      <c r="AN16" s="0" t="n">
         <v>0.4971</v>
       </c>
-      <c r="AN16" s="0" t="n">
+      <c r="AO16" s="0" t="n">
         <v>0.5127</v>
       </c>
     </row>
@@ -2170,120 +2219,123 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
+        <v>0.4113</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>0.386</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="D17" s="0" t="n">
         <v>0.3709</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="E17" s="0" t="n">
         <v>0.3791</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="F17" s="0" t="n">
         <v>0.3707</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="G17" s="0" t="n">
         <v>0.351</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="H17" s="0" t="n">
         <v>0.3549</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="I17" s="0" t="n">
         <v>0.3546</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="J17" s="0" t="n">
         <v>0.3941</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="K17" s="0" t="n">
         <v>0.4542</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="L17" s="0" t="n">
         <v>0.4789</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <v>0.4985</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="N17" s="0" t="n">
         <v>0.5113</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="O17" s="0" t="n">
         <v>0.5066</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="P17" s="0" t="n">
         <v>0.4841</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="Q17" s="0" t="n">
         <v>0.4701</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="R17" s="0" t="n">
         <v>0.4576</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="S17" s="0" t="n">
         <v>0.4529</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="T17" s="0" t="n">
         <v>0.4273</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="U17" s="0" t="n">
         <v>0.3975</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="V17" s="0" t="n">
         <v>0.3707</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="W17" s="0" t="n">
         <v>0.3455</v>
       </c>
-      <c r="W17" s="0" t="n">
+      <c r="X17" s="0" t="n">
         <v>0.298</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="Y17" s="0" t="n">
         <v>0.3179</v>
       </c>
-      <c r="Y17" s="0" t="n">
+      <c r="Z17" s="0" t="n">
         <v>0.3529</v>
       </c>
-      <c r="Z17" s="0" t="n">
+      <c r="AA17" s="0" t="n">
         <v>0.3939</v>
       </c>
-      <c r="AA17" s="0" t="n">
+      <c r="AB17" s="0" t="n">
         <v>0.4399</v>
       </c>
-      <c r="AB17" s="0" t="n">
+      <c r="AC17" s="0" t="n">
         <v>0.4311</v>
       </c>
-      <c r="AC17" s="0" t="n">
+      <c r="AD17" s="0" t="n">
         <v>0.3899</v>
       </c>
-      <c r="AD17" s="0" t="n">
+      <c r="AE17" s="0" t="n">
         <v>0.3498</v>
       </c>
-      <c r="AE17" s="0" t="n">
+      <c r="AF17" s="0" t="n">
         <v>0.3098</v>
       </c>
-      <c r="AF17" s="0" t="n">
+      <c r="AG17" s="0" t="n">
         <v>0.2901</v>
       </c>
-      <c r="AG17" s="0" t="n">
+      <c r="AH17" s="0" t="n">
         <v>0.0847</v>
       </c>
-      <c r="AH17" s="0" t="n">
+      <c r="AI17" s="0" t="n">
         <v>0.0971</v>
       </c>
-      <c r="AI17" s="0" t="n">
+      <c r="AJ17" s="0" t="n">
         <v>0.1098</v>
       </c>
-      <c r="AJ17" s="0" t="n">
+      <c r="AK17" s="0" t="n">
         <v>0.1193</v>
       </c>
-      <c r="AK17" s="0" t="n">
+      <c r="AL17" s="0" t="n">
         <v>0.416</v>
       </c>
-      <c r="AL17" s="0" t="n">
+      <c r="AM17" s="0" t="n">
         <v>0.457</v>
       </c>
-      <c r="AM17" s="0" t="n">
+      <c r="AN17" s="0" t="n">
         <v>0.4872</v>
       </c>
-      <c r="AN17" s="0" t="n">
+      <c r="AO17" s="0" t="n">
         <v>0.5135</v>
       </c>
     </row>
@@ -2294,120 +2346,123 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>0.339</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="D18" s="0" t="n">
         <v>0.32</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="E18" s="0" t="n">
         <v>0.3129</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="F18" s="0" t="n">
         <v>0.2857</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="G18" s="0" t="n">
         <v>0.2615</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="H18" s="0" t="n">
         <v>0.2708</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="I18" s="0" t="n">
         <v>0.2726</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="J18" s="0" t="n">
         <v>0.3317</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="K18" s="0" t="n">
         <v>0.396</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="L18" s="0" t="n">
         <v>0.3757</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="M18" s="0" t="n">
         <v>0.3931</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="N18" s="0" t="n">
         <v>0.4003</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="O18" s="0" t="n">
         <v>0.3916</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="P18" s="0" t="n">
         <v>0.4169</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="Q18" s="0" t="n">
         <v>0.3958</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="R18" s="0" t="n">
         <v>0.3802</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="S18" s="0" t="n">
         <v>0.3686</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="T18" s="0" t="n">
         <v>0.3316</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="U18" s="0" t="n">
         <v>0.2912</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="V18" s="0" t="n">
         <v>0.2475</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="W18" s="0" t="n">
         <v>0.2047</v>
       </c>
-      <c r="W18" s="0" t="n">
+      <c r="X18" s="0" t="n">
         <v>0.1764</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="Y18" s="0" t="n">
         <v>0.1859</v>
       </c>
-      <c r="Y18" s="0" t="n">
+      <c r="Z18" s="0" t="n">
         <v>0.2069</v>
       </c>
-      <c r="Z18" s="0" t="n">
+      <c r="AA18" s="0" t="n">
         <v>0.2346</v>
       </c>
-      <c r="AA18" s="0" t="n">
+      <c r="AB18" s="0" t="n">
         <v>0.2455</v>
       </c>
-      <c r="AB18" s="0" t="n">
+      <c r="AC18" s="0" t="n">
         <v>0.2367</v>
       </c>
-      <c r="AC18" s="0" t="n">
+      <c r="AD18" s="0" t="n">
         <v>0.2146</v>
       </c>
-      <c r="AD18" s="0" t="n">
+      <c r="AE18" s="0" t="n">
         <v>0.1894</v>
       </c>
-      <c r="AE18" s="0" t="n">
+      <c r="AF18" s="0" t="n">
         <v>0.1505</v>
       </c>
-      <c r="AF18" s="0" t="n">
+      <c r="AG18" s="0" t="n">
         <v>0.0904</v>
       </c>
-      <c r="AG18" s="0" t="n">
+      <c r="AH18" s="0" t="n">
         <v>0.0118</v>
       </c>
-      <c r="AH18" s="0" t="n">
+      <c r="AI18" s="0" t="n">
         <v>-0.0029</v>
       </c>
-      <c r="AI18" s="0" t="n">
+      <c r="AJ18" s="0" t="n">
         <v>0.0272</v>
       </c>
-      <c r="AJ18" s="0" t="n">
+      <c r="AK18" s="0" t="n">
         <v>0.0774</v>
       </c>
-      <c r="AK18" s="0" t="n">
+      <c r="AL18" s="0" t="n">
         <v>0.1612</v>
       </c>
-      <c r="AL18" s="0" t="n">
+      <c r="AM18" s="0" t="n">
         <v>0.1797</v>
       </c>
-      <c r="AM18" s="0" t="n">
+      <c r="AN18" s="0" t="n">
         <v>0.2153</v>
       </c>
-      <c r="AN18" s="0" t="n">
+      <c r="AO18" s="0" t="n">
         <v>0.2458</v>
       </c>
     </row>
@@ -2418,46 +2473,46 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
+        <v>0.2559</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>0.2749</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="D19" s="0" t="n">
         <v>0.2799</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="E19" s="0" t="n">
         <v>0.2892</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="F19" s="0" t="n">
         <v>0.3558</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="G19" s="0" t="n">
         <v>0.3413</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="H19" s="0" t="n">
         <v>0.2938</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="I19" s="0" t="n">
         <v>0.2864</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="J19" s="0" t="n">
         <v>0.2677</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="K19" s="0" t="n">
         <v>0.2751</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="L19" s="0" t="n">
         <v>0.3362</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="M19" s="0" t="n">
         <v>0.3643</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="N19" s="0" t="n">
         <v>0.4204</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="O19" s="0" t="n">
         <v>0.4301</v>
-      </c>
-      <c r="O19" s="0" t="n">
-        <v>0.4312</v>
       </c>
       <c r="P19" s="0" t="n">
         <v>0.4312</v>
@@ -2466,72 +2521,75 @@
         <v>0.4312</v>
       </c>
       <c r="R19" s="0" t="n">
+        <v>0.4312</v>
+      </c>
+      <c r="S19" s="0" t="n">
         <v>0.4203</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="T19" s="0" t="n">
         <v>0.4788</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="U19" s="0" t="n">
         <v>0.464</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="V19" s="0" t="n">
         <v>0.4525</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="W19" s="0" t="n">
         <v>0.4349</v>
       </c>
-      <c r="W19" s="0" t="n">
+      <c r="X19" s="0" t="n">
         <v>0.4314</v>
       </c>
-      <c r="X19" s="0" t="n">
+      <c r="Y19" s="0" t="n">
         <v>0.4256</v>
       </c>
-      <c r="Y19" s="0" t="n">
+      <c r="Z19" s="0" t="n">
         <v>0.4273</v>
       </c>
-      <c r="Z19" s="0" t="n">
+      <c r="AA19" s="0" t="n">
         <v>0.4408</v>
       </c>
-      <c r="AA19" s="0" t="n">
+      <c r="AB19" s="0" t="n">
         <v>0.2954</v>
       </c>
-      <c r="AB19" s="0" t="n">
+      <c r="AC19" s="0" t="n">
         <v>0.3204</v>
       </c>
-      <c r="AC19" s="0" t="n">
+      <c r="AD19" s="0" t="n">
         <v>0.3802</v>
       </c>
-      <c r="AD19" s="0" t="n">
+      <c r="AE19" s="0" t="n">
         <v>0.3633</v>
       </c>
-      <c r="AE19" s="0" t="n">
+      <c r="AF19" s="0" t="n">
         <v>0.3776</v>
       </c>
-      <c r="AF19" s="0" t="n">
+      <c r="AG19" s="0" t="n">
         <v>0.3282</v>
       </c>
-      <c r="AG19" s="0" t="n">
+      <c r="AH19" s="0" t="n">
         <v>0.1423</v>
       </c>
-      <c r="AH19" s="0" t="n">
+      <c r="AI19" s="0" t="n">
         <v>0.0741</v>
       </c>
-      <c r="AI19" s="0" t="n">
+      <c r="AJ19" s="0" t="n">
         <v>0.0472</v>
       </c>
-      <c r="AJ19" s="0" t="n">
+      <c r="AK19" s="0" t="n">
         <v>0.1315</v>
       </c>
-      <c r="AK19" s="0" t="n">
+      <c r="AL19" s="0" t="n">
         <v>0.183</v>
       </c>
-      <c r="AL19" s="0" t="n">
+      <c r="AM19" s="0" t="n">
         <v>0.2541</v>
       </c>
-      <c r="AM19" s="0" t="n">
+      <c r="AN19" s="0" t="n">
         <v>0.1867</v>
       </c>
-      <c r="AN19" s="0" t="n">
+      <c r="AO19" s="0" t="n">
         <v>0.0669</v>
       </c>
     </row>
@@ -2542,121 +2600,124 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
+        <v>45393000000.0</v>
+      </c>
+      <c r="C20" s="0" t="n">
         <v>39533000000.0</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="D20" s="0" t="n">
         <v>35221000000.0</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="E20" s="0" t="n">
         <v>34084000000.0</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="F20" s="0" t="n">
         <v>32545000000.0</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="G20" s="0" t="n">
         <v>29727000000.0</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="H20" s="0" t="n">
         <v>28446000000.0</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="I20" s="0" t="n">
         <v>26733000000.0</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="J20" s="0" t="n">
         <v>27502000000.0</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>29228000000.0</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="L20" s="0" t="n">
         <v>28389000000.0</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="M20" s="0" t="n">
         <v>27395000000.0</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="N20" s="0" t="n">
         <v>25628000000.0</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="O20" s="0" t="n">
         <v>23228000000.0</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="P20" s="0" t="n">
         <v>20202000000.0</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>18016000000.0</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="R20" s="0" t="n">
         <v>16205000000.0</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="S20" s="0" t="n">
         <v>14769000000.0</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="T20" s="0" t="n">
         <v>12692000000.0</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="U20" s="0" t="n">
         <v>10929000000.0</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="V20" s="0" t="n">
         <v>9342000000.0</v>
       </c>
-      <c r="V20" s="0" t="n">
+      <c r="W20" s="0" t="n">
         <v>8170000000.0</v>
       </c>
-      <c r="W20" s="0" t="n">
+      <c r="X20" s="0" t="n">
         <v>6632000000.0</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="Y20" s="0" t="n">
         <v>6373000000.0</v>
       </c>
-      <c r="Y20" s="0" t="n">
+      <c r="Z20" s="0" t="n">
         <v>6288000000.0</v>
       </c>
-      <c r="Z20" s="0" t="n">
+      <c r="AA20" s="0" t="n">
         <v>6237000000.0</v>
       </c>
-      <c r="AA20" s="0" t="n">
+      <c r="AB20" s="0" t="n">
         <v>6079000000.0</v>
       </c>
-      <c r="AB20" s="0" t="n">
+      <c r="AC20" s="0" t="n">
         <v>5403000000.0</v>
       </c>
-      <c r="AC20" s="0" t="n">
+      <c r="AD20" s="0" t="n">
         <v>4548000000.0</v>
       </c>
-      <c r="AD20" s="0" t="n">
+      <c r="AE20" s="0" t="n">
         <v>3815000000.0</v>
       </c>
-      <c r="AE20" s="0" t="n">
+      <c r="AF20" s="0" t="n">
         <v>3155000000.0</v>
       </c>
-      <c r="AF20" s="0" t="n">
+      <c r="AG20" s="0" t="n">
         <v>2698000000.0</v>
       </c>
-      <c r="AG20" s="0" t="n">
+      <c r="AH20" s="0" t="n">
         <v>1302000000.0</v>
       </c>
-      <c r="AH20" s="0" t="n">
+      <c r="AI20" s="0" t="n">
         <v>1187000000.0</v>
       </c>
-      <c r="AI20" s="0" t="n">
+      <c r="AJ20" s="0" t="n">
         <v>1091000000.0</v>
       </c>
-      <c r="AJ20" s="0" t="n">
+      <c r="AK20" s="0" t="n">
         <v>1049000000.0</v>
       </c>
-      <c r="AK20" s="0" t="n">
+      <c r="AL20" s="0" t="n">
         <v>2132000000.0</v>
       </c>
-      <c r="AL20" s="0" t="n">
+      <c r="AM20" s="0" t="n">
         <v>2080000000.0</v>
       </c>
-      <c r="AM20" s="0" t="n">
-        <v>2005000000.0</v>
-      </c>
       <c r="AN20" s="0" t="n">
-        <v>1710000000.0</v>
+        <v>1866000000.0</v>
+      </c>
+      <c r="AO20" s="0" t="n">
+        <v>1571000000.0</v>
       </c>
     </row>
     <row r="21">
@@ -2666,120 +2727,123 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
+        <v>38156000000.0</v>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>32671000000.0</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="D21" s="0" t="n">
         <v>28754000000.0</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="E21" s="0" t="n">
         <v>27899000000.0</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="F21" s="0" t="n">
         <v>26562000000.0</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="G21" s="0" t="n">
         <v>23986000000.0</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="H21" s="0" t="n">
         <v>22948000000.0</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="I21" s="0" t="n">
         <v>21544000000.0</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="J21" s="0" t="n">
         <v>22781000000.0</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="K21" s="0" t="n">
         <v>24913000000.0</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="L21" s="0" t="n">
         <v>24446000000.0</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="M21" s="0" t="n">
         <v>23787000000.0</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="N21" s="0" t="n">
         <v>22325000000.0</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="O21" s="0" t="n">
         <v>20203000000.0</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="P21" s="0" t="n">
         <v>17416000000.0</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="Q21" s="0" t="n">
         <v>15411000000.0</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="R21" s="0" t="n">
         <v>13744000000.0</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="S21" s="0" t="n">
         <v>12427000000.0</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="T21" s="0" t="n">
         <v>10421000000.0</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="U21" s="0" t="n">
         <v>8763000000.0</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="V21" s="0" t="n">
         <v>7302000000.0</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="W21" s="0" t="n">
         <v>6225000000.0</v>
       </c>
-      <c r="W21" s="0" t="n">
+      <c r="X21" s="0" t="n">
         <v>4797000000.0</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="Y21" s="0" t="n">
         <v>4735000000.0</v>
       </c>
-      <c r="Y21" s="0" t="n">
+      <c r="Z21" s="0" t="n">
         <v>4852000000.0</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="AA21" s="0" t="n">
         <v>4994000000.0</v>
       </c>
-      <c r="AA21" s="0" t="n">
+      <c r="AB21" s="0" t="n">
         <v>4995000000.0</v>
       </c>
-      <c r="AB21" s="0" t="n">
+      <c r="AC21" s="0" t="n">
         <v>4334000000.0</v>
       </c>
-      <c r="AC21" s="0" t="n">
+      <c r="AD21" s="0" t="n">
         <v>3506000000.0</v>
       </c>
-      <c r="AD21" s="0" t="n">
+      <c r="AE21" s="0" t="n">
         <v>2804000000.0</v>
       </c>
-      <c r="AE21" s="0" t="n">
+      <c r="AF21" s="0" t="n">
         <v>2194000000.0</v>
       </c>
-      <c r="AF21" s="0" t="n">
+      <c r="AG21" s="0" t="n">
         <v>1835000000.0</v>
       </c>
-      <c r="AG21" s="0" t="n">
+      <c r="AH21" s="0" t="n">
         <v>530000000.0</v>
       </c>
-      <c r="AH21" s="0" t="n">
+      <c r="AI21" s="0" t="n">
         <v>538000000.0</v>
       </c>
-      <c r="AI21" s="0" t="n">
+      <c r="AJ21" s="0" t="n">
         <v>563000000.0</v>
       </c>
-      <c r="AJ21" s="0" t="n">
+      <c r="AK21" s="0" t="n">
         <v>600000000.0</v>
       </c>
-      <c r="AK21" s="0" t="n">
+      <c r="AL21" s="0" t="n">
         <v>1750000000.0</v>
       </c>
-      <c r="AL21" s="0" t="n">
+      <c r="AM21" s="0" t="n">
         <v>1757000000.0</v>
       </c>
-      <c r="AM21" s="0" t="n">
+      <c r="AN21" s="0" t="n">
         <v>1646000000.0</v>
       </c>
-      <c r="AN21" s="0" t="n">
+      <c r="AO21" s="0" t="n">
         <v>1448000000.0</v>
       </c>
     </row>
@@ -2790,122 +2854,125 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
+        <v>11.6781</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>10.092</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="D22" s="0" t="n">
         <v>8.773</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="E22" s="0" t="n">
         <v>8.1784</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="F22" s="0" t="n">
         <v>7.2898</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="G22" s="0" t="n">
         <v>6.4272</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="H22" s="0" t="n">
         <v>6.246</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="I22" s="0" t="n">
         <v>5.8902</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="J22" s="0" t="n">
         <v>6.723</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="K22" s="0" t="n">
         <v>7.5701</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="L22" s="0" t="n">
         <v>6.6376</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="M22" s="0" t="n">
         <v>6.4665</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="N22" s="0" t="n">
         <v>6.0434</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="O22" s="0" t="n">
         <v>5.3905</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="P22" s="0" t="n">
         <v>5.1697</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="Q22" s="0" t="n">
         <v>4.4736</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="R22" s="0" t="n">
         <v>3.9356</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="S22" s="0" t="n">
         <v>3.4931</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="T22" s="0" t="n">
         <v>2.8231</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="U22" s="0" t="n">
         <v>2.2398</v>
       </c>
-      <c r="U22" s="0" t="n">
+      <c r="V22" s="0" t="n">
         <v>1.7105</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="W22" s="0" t="n">
         <v>1.2927</v>
       </c>
-      <c r="W22" s="0" t="n">
+      <c r="X22" s="0" t="n">
         <v>0.996</v>
       </c>
-      <c r="X22" s="0" t="n">
+      <c r="Y22" s="0" t="n">
         <v>0.9878</v>
       </c>
-      <c r="Y22" s="0" t="n">
+      <c r="Z22" s="0" t="n">
         <v>1.038</v>
       </c>
-      <c r="Z22" s="0" t="n">
+      <c r="AA22" s="0" t="n">
         <v>1.1036</v>
       </c>
-      <c r="AA22" s="0" t="n">
+      <c r="AB22" s="0" t="n">
         <v>1.0605</v>
       </c>
-      <c r="AB22" s="0" t="n">
+      <c r="AC22" s="0" t="n">
         <v>0.9238</v>
       </c>
-      <c r="AC22" s="0" t="n">
+      <c r="AD22" s="0" t="n">
         <v>0.7544</v>
       </c>
-      <c r="AD22" s="0" t="n">
+      <c r="AE22" s="0" t="n">
         <v>0.5959</v>
       </c>
-      <c r="AE22" s="0" t="n">
+      <c r="AF22" s="0" t="n">
         <v>0.4143</v>
       </c>
-      <c r="AF22" s="0" t="n">
+      <c r="AG22" s="0" t="n">
         <v>0.2218</v>
       </c>
-      <c r="AG22" s="0" t="n">
+      <c r="AH22" s="0" t="n">
         <v>0.0051</v>
       </c>
-      <c r="AH22" s="0" t="n">
+      <c r="AI22" s="0" t="n">
         <v>0.0518</v>
       </c>
-      <c r="AI22" s="0" t="n">
+      <c r="AJ22" s="0" t="n">
         <v>0.2251</v>
       </c>
-      <c r="AJ22" s="0" t="n">
+      <c r="AK22" s="0" t="n">
         <v>0.3988</v>
       </c>
-      <c r="AK22" s="0" t="n">
+      <c r="AL22" s="0" t="n">
         <v>0.6413</v>
       </c>
-      <c r="AL22" s="0" t="n">
+      <c r="AM22" s="0" t="n">
         <v>0.588</v>
       </c>
-      <c r="AM22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AN22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO22" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2918,122 +2985,125 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
+        <v>11.8395</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>10.2231</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="D23" s="0" t="n">
         <v>8.8651</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="E23" s="0" t="n">
         <v>8.2463</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="F23" s="0" t="n">
         <v>7.3458</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="G23" s="0" t="n">
         <v>6.4769</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="H23" s="0" t="n">
         <v>6.2914</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <v>5.9378</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="J23" s="0" t="n">
         <v>6.7852</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="K23" s="0" t="n">
         <v>7.6511</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="L23" s="0" t="n">
         <v>6.7298</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="M23" s="0" t="n">
         <v>6.5701</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="N23" s="0" t="n">
         <v>6.1492</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="O23" s="0" t="n">
         <v>5.4926</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="P23" s="0" t="n">
         <v>5.2664</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="Q23" s="0" t="n">
         <v>4.5605</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="R23" s="0" t="n">
         <v>4.0171</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="S23" s="0" t="n">
         <v>3.5686</v>
       </c>
-      <c r="S23" s="0" t="n">
+      <c r="T23" s="0" t="n">
         <v>2.8813</v>
       </c>
-      <c r="T23" s="0" t="n">
+      <c r="U23" s="0" t="n">
         <v>2.2854</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="V23" s="0" t="n">
         <v>1.7432</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="W23" s="0" t="n">
         <v>1.3158</v>
       </c>
-      <c r="W23" s="0" t="n">
+      <c r="X23" s="0" t="n">
         <v>1.0121</v>
       </c>
-      <c r="X23" s="0" t="n">
+      <c r="Y23" s="0" t="n">
         <v>1.0046</v>
       </c>
-      <c r="Y23" s="0" t="n">
+      <c r="Z23" s="0" t="n">
         <v>1.0564</v>
       </c>
-      <c r="Z23" s="0" t="n">
+      <c r="AA23" s="0" t="n">
         <v>1.1248</v>
       </c>
-      <c r="AA23" s="0" t="n">
+      <c r="AB23" s="0" t="n">
         <v>1.0877</v>
       </c>
-      <c r="AB23" s="0" t="n">
+      <c r="AC23" s="0" t="n">
         <v>0.951</v>
       </c>
-      <c r="AC23" s="0" t="n">
+      <c r="AD23" s="0" t="n">
         <v>0.7803</v>
       </c>
-      <c r="AD23" s="0" t="n">
+      <c r="AE23" s="0" t="n">
         <v>0.6198</v>
       </c>
-      <c r="AE23" s="0" t="n">
+      <c r="AF23" s="0" t="n">
         <v>0.432</v>
       </c>
-      <c r="AF23" s="0" t="n">
+      <c r="AG23" s="0" t="n">
         <v>0.2327</v>
       </c>
-      <c r="AG23" s="0" t="n">
+      <c r="AH23" s="0" t="n">
         <v>0.0108</v>
       </c>
-      <c r="AH23" s="0" t="n">
+      <c r="AI23" s="0" t="n">
         <v>0.0712</v>
       </c>
-      <c r="AI23" s="0" t="n">
+      <c r="AJ23" s="0" t="n">
         <v>0.2721</v>
       </c>
-      <c r="AJ23" s="0" t="n">
+      <c r="AK23" s="0" t="n">
         <v>0.469</v>
       </c>
-      <c r="AK23" s="0" t="n">
+      <c r="AL23" s="0" t="n">
         <v>0.7384</v>
       </c>
-      <c r="AL23" s="0" t="n">
+      <c r="AM23" s="0" t="n">
         <v>0.7741</v>
       </c>
-      <c r="AM23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AN23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO23" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3046,122 +3116,125 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
+        <v>11.8395</v>
+      </c>
+      <c r="C24" s="0" t="n">
         <v>10.2231</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="D24" s="0" t="n">
         <v>8.8651</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="E24" s="0" t="n">
         <v>8.2463</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="F24" s="0" t="n">
         <v>7.3458</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="G24" s="0" t="n">
         <v>6.4769</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="H24" s="0" t="n">
         <v>6.2914</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="I24" s="0" t="n">
         <v>5.9378</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="J24" s="0" t="n">
         <v>6.7852</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="K24" s="0" t="n">
         <v>7.6511</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="L24" s="0" t="n">
         <v>6.7298</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="M24" s="0" t="n">
         <v>6.5701</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="N24" s="0" t="n">
         <v>6.1492</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="O24" s="0" t="n">
         <v>5.4926</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="P24" s="0" t="n">
         <v>5.2664</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="Q24" s="0" t="n">
         <v>4.5605</v>
       </c>
-      <c r="Q24" s="0" t="n">
+      <c r="R24" s="0" t="n">
         <v>4.0171</v>
       </c>
-      <c r="R24" s="0" t="n">
+      <c r="S24" s="0" t="n">
         <v>3.5686</v>
       </c>
-      <c r="S24" s="0" t="n">
+      <c r="T24" s="0" t="n">
         <v>2.8813</v>
       </c>
-      <c r="T24" s="0" t="n">
+      <c r="U24" s="0" t="n">
         <v>2.2854</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="V24" s="0" t="n">
         <v>1.7432</v>
       </c>
-      <c r="V24" s="0" t="n">
+      <c r="W24" s="0" t="n">
         <v>1.3158</v>
       </c>
-      <c r="W24" s="0" t="n">
+      <c r="X24" s="0" t="n">
         <v>1.0121</v>
       </c>
-      <c r="X24" s="0" t="n">
+      <c r="Y24" s="0" t="n">
         <v>1.0046</v>
       </c>
-      <c r="Y24" s="0" t="n">
+      <c r="Z24" s="0" t="n">
         <v>1.0564</v>
       </c>
-      <c r="Z24" s="0" t="n">
+      <c r="AA24" s="0" t="n">
         <v>1.1248</v>
       </c>
-      <c r="AA24" s="0" t="n">
+      <c r="AB24" s="0" t="n">
         <v>1.0877</v>
       </c>
-      <c r="AB24" s="0" t="n">
+      <c r="AC24" s="0" t="n">
         <v>0.951</v>
       </c>
-      <c r="AC24" s="0" t="n">
+      <c r="AD24" s="0" t="n">
         <v>0.7803</v>
       </c>
-      <c r="AD24" s="0" t="n">
+      <c r="AE24" s="0" t="n">
         <v>0.6198</v>
       </c>
-      <c r="AE24" s="0" t="n">
+      <c r="AF24" s="0" t="n">
         <v>0.432</v>
       </c>
-      <c r="AF24" s="0" t="n">
+      <c r="AG24" s="0" t="n">
         <v>0.2327</v>
       </c>
-      <c r="AG24" s="0" t="n">
+      <c r="AH24" s="0" t="n">
         <v>0.0108</v>
       </c>
-      <c r="AH24" s="0" t="n">
+      <c r="AI24" s="0" t="n">
         <v>0.0712</v>
       </c>
-      <c r="AI24" s="0" t="n">
+      <c r="AJ24" s="0" t="n">
         <v>0.2721</v>
       </c>
-      <c r="AJ24" s="0" t="n">
+      <c r="AK24" s="0" t="n">
         <v>0.469</v>
       </c>
-      <c r="AK24" s="0" t="n">
+      <c r="AL24" s="0" t="n">
         <v>0.7384</v>
       </c>
-      <c r="AL24" s="0" t="n">
+      <c r="AM24" s="0" t="n">
         <v>0.7741</v>
       </c>
-      <c r="AM24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AN24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO24" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3174,120 +3247,123 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
+        <v>33741000000.0</v>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>29146000000.0</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="D25" s="0" t="n">
         <v>25275000000.0</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="E25" s="0" t="n">
         <v>23520000000.0</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>20958000000.0</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="G25" s="0" t="n">
         <v>18485000000.0</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="H25" s="0" t="n">
         <v>18017000000.0</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="I25" s="0" t="n">
         <v>17063000000.0</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="J25" s="0" t="n">
         <v>19553000000.0</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="K25" s="0" t="n">
         <v>22112000000.0</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="L25" s="0" t="n">
         <v>19500000000.0</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="M25" s="0" t="n">
         <v>19070000000.0</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="N25" s="0" t="n">
         <v>17858000000.0</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="O25" s="0" t="n">
         <v>15934000000.0</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="P25" s="0" t="n">
         <v>15234000000.0</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="Q25" s="0" t="n">
         <v>13154000000.0</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="R25" s="0" t="n">
         <v>11543000000.0</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="S25" s="0" t="n">
         <v>10217000000.0</v>
       </c>
-      <c r="S25" s="0" t="n">
+      <c r="T25" s="0" t="n">
         <v>8209000000.0</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="U25" s="0" t="n">
         <v>6478000000.0</v>
       </c>
-      <c r="U25" s="0" t="n">
+      <c r="V25" s="0" t="n">
         <v>4914000000.0</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="W25" s="0" t="n">
         <v>3688000000.0</v>
       </c>
-      <c r="W25" s="0" t="n">
+      <c r="X25" s="0" t="n">
         <v>2828000000.0</v>
       </c>
-      <c r="X25" s="0" t="n">
+      <c r="Y25" s="0" t="n">
         <v>2738000000.0</v>
       </c>
-      <c r="Y25" s="0" t="n">
+      <c r="Z25" s="0" t="n">
         <v>2810000000.0</v>
       </c>
-      <c r="Z25" s="0" t="n">
+      <c r="AA25" s="0" t="n">
         <v>2940000000.0</v>
       </c>
-      <c r="AA25" s="0" t="n">
+      <c r="AB25" s="0" t="n">
         <v>2762000000.0</v>
       </c>
-      <c r="AB25" s="0" t="n">
+      <c r="AC25" s="0" t="n">
         <v>2381000000.0</v>
       </c>
-      <c r="AC25" s="0" t="n">
+      <c r="AD25" s="0" t="n">
         <v>1923000000.0</v>
       </c>
-      <c r="AD25" s="0" t="n">
+      <c r="AE25" s="0" t="n">
         <v>1500000000.0</v>
       </c>
-      <c r="AE25" s="0" t="n">
+      <c r="AF25" s="0" t="n">
         <v>1041000000.0</v>
       </c>
-      <c r="AF25" s="0" t="n">
+      <c r="AG25" s="0" t="n">
         <v>557000000.0</v>
       </c>
-      <c r="AG25" s="0" t="n">
+      <c r="AH25" s="0" t="n">
         <v>67000000.0</v>
       </c>
-      <c r="AH25" s="0" t="n">
+      <c r="AI25" s="0" t="n">
         <v>53000000.0</v>
       </c>
-      <c r="AI25" s="0" t="n">
+      <c r="AJ25" s="0" t="n">
         <v>291000000.0</v>
       </c>
-      <c r="AJ25" s="0" t="n">
+      <c r="AK25" s="0" t="n">
         <v>577000000.0</v>
       </c>
-      <c r="AK25" s="0" t="n">
+      <c r="AL25" s="0" t="n">
         <v>974000000.0</v>
       </c>
-      <c r="AL25" s="0" t="n">
+      <c r="AM25" s="0" t="n">
         <v>1002000000.0</v>
       </c>
-      <c r="AM25" s="0" t="n">
+      <c r="AN25" s="0" t="n">
         <v>951000000.0</v>
       </c>
-      <c r="AN25" s="0" t="n">
+      <c r="AO25" s="0" t="n">
         <v>855000000.0</v>
       </c>
     </row>
@@ -3298,120 +3374,123 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
+        <v>33740000000.0</v>
+      </c>
+      <c r="C26" s="0" t="n">
         <v>29145000000.0</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="D26" s="0" t="n">
         <v>25275000000.0</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="E26" s="0" t="n">
         <v>23520000000.0</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="F26" s="0" t="n">
         <v>20958000000.0</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="G26" s="0" t="n">
         <v>18485000000.0</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="H26" s="0" t="n">
         <v>18017000000.0</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="I26" s="0" t="n">
         <v>17063000000.0</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="J26" s="0" t="n">
         <v>19553000000.0</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="K26" s="0" t="n">
         <v>22112000000.0</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="L26" s="0" t="n">
         <v>19500000000.0</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="M26" s="0" t="n">
         <v>19070000000.0</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="N26" s="0" t="n">
         <v>17858000000.0</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="O26" s="0" t="n">
         <v>15934000000.0</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="P26" s="0" t="n">
         <v>15234000000.0</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="Q26" s="0" t="n">
         <v>13154000000.0</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="R26" s="0" t="n">
         <v>11543000000.0</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="S26" s="0" t="n">
         <v>10217000000.0</v>
       </c>
-      <c r="S26" s="0" t="n">
+      <c r="T26" s="0" t="n">
         <v>8209000000.0</v>
       </c>
-      <c r="T26" s="0" t="n">
+      <c r="U26" s="0" t="n">
         <v>6478000000.0</v>
       </c>
-      <c r="U26" s="0" t="n">
+      <c r="V26" s="0" t="n">
         <v>4914000000.0</v>
       </c>
-      <c r="V26" s="0" t="n">
+      <c r="W26" s="0" t="n">
         <v>3688000000.0</v>
       </c>
-      <c r="W26" s="0" t="n">
+      <c r="X26" s="0" t="n">
         <v>2828000000.0</v>
       </c>
-      <c r="X26" s="0" t="n">
+      <c r="Y26" s="0" t="n">
         <v>2738000000.0</v>
       </c>
-      <c r="Y26" s="0" t="n">
+      <c r="Z26" s="0" t="n">
         <v>2810000000.0</v>
       </c>
-      <c r="Z26" s="0" t="n">
+      <c r="AA26" s="0" t="n">
         <v>2940000000.0</v>
       </c>
-      <c r="AA26" s="0" t="n">
+      <c r="AB26" s="0" t="n">
         <v>2762000000.0</v>
       </c>
-      <c r="AB26" s="0" t="n">
+      <c r="AC26" s="0" t="n">
         <v>2381000000.0</v>
       </c>
-      <c r="AC26" s="0" t="n">
+      <c r="AD26" s="0" t="n">
         <v>1923000000.0</v>
       </c>
-      <c r="AD26" s="0" t="n">
+      <c r="AE26" s="0" t="n">
         <v>1500000000.0</v>
       </c>
-      <c r="AE26" s="0" t="n">
+      <c r="AF26" s="0" t="n">
         <v>1041000000.0</v>
       </c>
-      <c r="AF26" s="0" t="n">
+      <c r="AG26" s="0" t="n">
         <v>557000000.0</v>
       </c>
-      <c r="AG26" s="0" t="n">
+      <c r="AH26" s="0" t="n">
         <v>67000000.0</v>
       </c>
-      <c r="AH26" s="0" t="n">
+      <c r="AI26" s="0" t="n">
         <v>53000000.0</v>
       </c>
-      <c r="AI26" s="0" t="n">
+      <c r="AJ26" s="0" t="n">
         <v>291000000.0</v>
       </c>
-      <c r="AJ26" s="0" t="n">
+      <c r="AK26" s="0" t="n">
         <v>577000000.0</v>
       </c>
-      <c r="AK26" s="0" t="n">
+      <c r="AL26" s="0" t="n">
         <v>974000000.0</v>
       </c>
-      <c r="AL26" s="0" t="n">
+      <c r="AM26" s="0" t="n">
         <v>1002000000.0</v>
       </c>
-      <c r="AM26" s="0" t="n">
+      <c r="AN26" s="0" t="n">
         <v>951000000.0</v>
       </c>
-      <c r="AN26" s="0" t="n">
+      <c r="AO26" s="0" t="n">
         <v>855000000.0</v>
       </c>
     </row>
@@ -3422,121 +3501,124 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
+        <v>0.4809</v>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>0.4599</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="D27" s="0" t="n">
         <v>0.446</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="E27" s="0" t="n">
         <v>0.4535</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="F27" s="0" t="n">
         <v>0.4437</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="G27" s="0" t="n">
         <v>0.4205</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="H27" s="0" t="n">
         <v>0.4276</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="I27" s="0" t="n">
         <v>0.427</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="J27" s="0" t="n">
         <v>0.4665</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="K27" s="0" t="n">
         <v>0.5234</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="L27" s="0" t="n">
         <v>0.547</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="M27" s="0" t="n">
         <v>0.5649</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="N27" s="0" t="n">
         <v>0.5748</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="O27" s="0" t="n">
         <v>0.5714</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="P27" s="0" t="n">
         <v>0.5536</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="Q27" s="0" t="n">
         <v>0.5431</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="R27" s="0" t="n">
         <v>0.535</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="S27" s="0" t="n">
         <v>0.5344</v>
       </c>
-      <c r="S27" s="0" t="n">
+      <c r="T27" s="0" t="n">
         <v>0.5145</v>
       </c>
-      <c r="T27" s="0" t="n">
+      <c r="U27" s="0" t="n">
         <v>0.4932</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="V27" s="0" t="n">
         <v>0.4726</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="W27" s="0" t="n">
         <v>0.4557</v>
       </c>
-      <c r="W27" s="0" t="n">
+      <c r="X27" s="0" t="n">
         <v>0.4161</v>
       </c>
-      <c r="X27" s="0" t="n">
+      <c r="Y27" s="0" t="n">
         <v>0.4353</v>
       </c>
-      <c r="Y27" s="0" t="n">
+      <c r="Z27" s="0" t="n">
         <v>0.4655</v>
       </c>
-      <c r="Z27" s="0" t="n">
+      <c r="AA27" s="0" t="n">
         <v>0.5003</v>
       </c>
-      <c r="AA27" s="0" t="n">
+      <c r="AB27" s="0" t="n">
         <v>0.5428</v>
       </c>
-      <c r="AB27" s="0" t="n">
+      <c r="AC27" s="0" t="n">
         <v>0.5396</v>
       </c>
-      <c r="AC27" s="0" t="n">
+      <c r="AD27" s="0" t="n">
         <v>0.5101</v>
       </c>
-      <c r="AD27" s="0" t="n">
+      <c r="AE27" s="0" t="n">
         <v>0.4846</v>
       </c>
-      <c r="AE27" s="0" t="n">
+      <c r="AF27" s="0" t="n">
         <v>0.4591</v>
       </c>
-      <c r="AF27" s="0" t="n">
+      <c r="AG27" s="0" t="n">
         <v>0.441</v>
       </c>
-      <c r="AG27" s="0" t="n">
+      <c r="AH27" s="0" t="n">
         <v>0.2372</v>
       </c>
-      <c r="AH27" s="0" t="n">
+      <c r="AI27" s="0" t="n">
         <v>0.2332</v>
       </c>
-      <c r="AI27" s="0" t="n">
+      <c r="AJ27" s="0" t="n">
         <v>0.2354</v>
       </c>
-      <c r="AJ27" s="0" t="n">
+      <c r="AK27" s="0" t="n">
         <v>0.2424</v>
       </c>
-      <c r="AK27" s="0" t="n">
+      <c r="AL27" s="0" t="n">
         <v>0.528</v>
       </c>
-      <c r="AL27" s="0" t="n">
+      <c r="AM27" s="0" t="n">
         <v>0.5605</v>
       </c>
-      <c r="AM27" s="0" t="n">
-        <v>0.6056</v>
-      </c>
       <c r="AN27" s="0" t="n">
-        <v>0.6055</v>
+        <v>0.5636</v>
+      </c>
+      <c r="AO27" s="0" t="n">
+        <v>0.5563</v>
       </c>
     </row>
     <row r="28">
@@ -3546,120 +3628,123 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
+        <v>0.4236</v>
+      </c>
+      <c r="C28" s="0" t="n">
         <v>0.4507</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="D28" s="0" t="n">
         <v>0.4647</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="E28" s="0" t="n">
         <v>0.4814</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>0.5578</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="G28" s="0" t="n">
         <v>0.5549</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="H28" s="0" t="n">
         <v>0.5238</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="I28" s="0" t="n">
         <v>0.5278</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="J28" s="0" t="n">
         <v>0.5212</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="K28" s="0" t="n">
         <v>0.5243</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="L28" s="0" t="n">
         <v>0.5651</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="M28" s="0" t="n">
         <v>0.5764</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="N28" s="0" t="n">
         <v>0.606</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="O28" s="0" t="n">
         <v>0.5957</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="P28" s="0" t="n">
         <v>0.5885</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="Q28" s="0" t="n">
         <v>0.5843</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="R28" s="0" t="n">
         <v>0.584</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="S28" s="0" t="n">
         <v>0.5828</v>
       </c>
-      <c r="S28" s="0" t="n">
+      <c r="T28" s="0" t="n">
         <v>0.6374</v>
       </c>
-      <c r="T28" s="0" t="n">
+      <c r="U28" s="0" t="n">
         <v>0.6264</v>
       </c>
-      <c r="U28" s="0" t="n">
+      <c r="V28" s="0" t="n">
         <v>0.612</v>
       </c>
-      <c r="V28" s="0" t="n">
+      <c r="W28" s="0" t="n">
         <v>0.5756</v>
       </c>
-      <c r="W28" s="0" t="n">
+      <c r="X28" s="0" t="n">
         <v>0.5788</v>
       </c>
-      <c r="X28" s="0" t="n">
+      <c r="Y28" s="0" t="n">
         <v>0.5656</v>
       </c>
-      <c r="Y28" s="0" t="n">
+      <c r="Z28" s="0" t="n">
         <v>0.5731</v>
       </c>
-      <c r="Z28" s="0" t="n">
+      <c r="AA28" s="0" t="n">
         <v>0.5877</v>
       </c>
-      <c r="AA28" s="0" t="n">
+      <c r="AB28" s="0" t="n">
         <v>0.4558</v>
       </c>
-      <c r="AB28" s="0" t="n">
+      <c r="AC28" s="0" t="n">
         <v>0.4801</v>
       </c>
-      <c r="AC28" s="0" t="n">
+      <c r="AD28" s="0" t="n">
         <v>0.537</v>
       </c>
-      <c r="AD28" s="0" t="n">
+      <c r="AE28" s="0" t="n">
         <v>0.5363</v>
       </c>
-      <c r="AE28" s="0" t="n">
+      <c r="AF28" s="0" t="n">
         <v>0.5343</v>
       </c>
-      <c r="AF28" s="0" t="n">
+      <c r="AG28" s="0" t="n">
         <v>0.4858</v>
       </c>
-      <c r="AG28" s="0" t="n">
+      <c r="AH28" s="0" t="n">
         <v>0.3443</v>
       </c>
-      <c r="AH28" s="0" t="n">
+      <c r="AI28" s="0" t="n">
         <v>0.3168</v>
       </c>
-      <c r="AI28" s="0" t="n">
+      <c r="AJ28" s="0" t="n">
         <v>0.3109</v>
       </c>
-      <c r="AJ28" s="0" t="n">
+      <c r="AK28" s="0" t="n">
         <v>0.4058</v>
       </c>
-      <c r="AK28" s="0" t="n">
+      <c r="AL28" s="0" t="n">
         <v>0.4074</v>
       </c>
-      <c r="AL28" s="0" t="n">
+      <c r="AM28" s="0" t="n">
         <v>0.4174</v>
       </c>
-      <c r="AM28" s="0" t="n">
+      <c r="AN28" s="0" t="n">
         <v>0.3138</v>
       </c>
-      <c r="AN28" s="0" t="n">
+      <c r="AO28" s="0" t="n">
         <v>0.1678</v>
       </c>
     </row>

--- a/Income/FB_inc.xlsx
+++ b/Income/FB_inc.xlsx
@@ -2479,16 +2479,16 @@
         <v>0.2749</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.2799</v>
+        <v>0.243</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.2892</v>
+        <v>0.2504</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.3558</v>
+        <v>0.316</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.3413</v>
+        <v>0.3</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.2938</v>
@@ -3634,16 +3634,16 @@
         <v>0.4507</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.4647</v>
+        <v>0.4279</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.4814</v>
+        <v>0.4426</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.5578</v>
+        <v>0.5181</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.5549</v>
+        <v>0.5137</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.5238</v>
